--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V4 Find.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V4 Find.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users-Data\mq20021873\Desktop\Coursera 20 April 2017\Course 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B44F65-19DB-416A-BEC9-E732306AE2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$J$24</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -512,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -933,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N38"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +958,7 @@
     <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
@@ -966,7 +967,7 @@
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="str">
-        <f>PROPER(_xlfn.CONCAT(C4," ",B4))</f>
+        <f>PROPER(CONCATENATE(C4, " ", B4))</f>
         <v>Stevie Bacata</v>
       </c>
       <c r="E4" t="str">
@@ -1051,11 +1052,15 @@
         <v>2635</v>
       </c>
       <c r="N4" t="str">
-        <f>MID(K4,4,4)</f>
+        <f>MID(K4,4,FIND(" ",K4)-4)</f>
         <v>West</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f>FIND(" ",K4)-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D38" si="0">PROPER(_xlfn.CONCAT(C5," ",B5))</f>
+        <f t="shared" ref="D5:D38" si="0">PROPER(CONCATENATE(C5, " ", B5))</f>
         <v>Adam Barry</v>
       </c>
       <c r="E5" t="str">
@@ -1096,11 +1101,15 @@
         <v>2018</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N38" si="4">MID(K5,4,4)</f>
+        <f t="shared" ref="N5:N38" si="4">MID(K5,4,FIND(" ",K5)-4)</f>
         <v>West</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f t="shared" ref="O5:O38" si="5">FIND(" ",K5)-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1144,8 +1153,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1189,8 +1202,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -1234,8 +1251,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1277,10 +1298,14 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1322,10 +1347,14 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1369,8 +1398,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1412,10 +1445,14 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1459,8 +1496,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1504,8 +1545,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1547,10 +1592,14 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1594,8 +1643,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1639,8 +1692,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -1684,8 +1741,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1729,8 +1790,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -1774,8 +1839,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1819,8 +1888,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -1862,10 +1935,14 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1907,10 +1984,14 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1954,8 +2035,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -1999,8 +2084,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2042,10 +2131,14 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2087,10 +2180,14 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2134,8 +2231,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2177,10 +2278,14 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2222,10 +2327,14 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2267,10 +2376,14 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2312,10 +2425,14 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -2359,8 +2476,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2402,10 +2523,14 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2449,8 +2574,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2492,10 +2621,14 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>North</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2539,8 +2672,12 @@
         <f t="shared" si="4"/>
         <v>West</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -2582,11 +2719,15 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="4"/>
-        <v>Nort</v>
+        <v>North</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:M38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M38">
     <sortCondition ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
